--- a/input_data/input_data_6.xlsx
+++ b/input_data/input_data_6.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53B4D58-288B-4CC8-B975-86DCF799B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF52AC2-C44C-4960-A756-436D9592DDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12336" tabRatio="796" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="1440" yWindow="1404" windowWidth="11508" windowHeight="9864" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
     <sheet name="nodes" sheetId="1" r:id="rId2"/>
     <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="node_history" sheetId="19" r:id="rId6"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
-    <sheet name="cf" sheetId="7" r:id="rId8"/>
-    <sheet name="inflow" sheetId="3" r:id="rId9"/>
-    <sheet name="price" sheetId="4" r:id="rId10"/>
-    <sheet name="markets" sheetId="5" r:id="rId11"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
-    <sheet name="risk" sheetId="17" r:id="rId14"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
-    <sheet name="constraints" sheetId="14" r:id="rId18"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="groups" sheetId="21" r:id="rId4"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
+    <sheet name="node_history" sheetId="19" r:id="rId7"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
+    <sheet name="cf" sheetId="7" r:id="rId9"/>
+    <sheet name="inflow" sheetId="3" r:id="rId10"/>
+    <sheet name="price" sheetId="4" r:id="rId11"/>
+    <sheet name="markets" sheetId="5" r:id="rId12"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
+    <sheet name="risk" sheetId="17" r:id="rId15"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
+    <sheet name="constraints" sheetId="14" r:id="rId19"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>node</t>
   </si>
@@ -247,6 +248,12 @@
   </si>
   <si>
     <t>rup,ALL</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -815,10 +822,229 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1116,7 +1342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -1360,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1623,7 +1849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1665,7 +1891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1697,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1871,7 +2097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2039,7 +2265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -2070,173 +2296,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2371,6 +2430,173 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2716,6 +2942,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C10B8-3419-4918-850A-9BDB021996C8}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -2774,7 +3026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2931,7 +3183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3098,7 +3350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3129,7 +3381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3299,223 +3551,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>